--- a/patient_data/patient_28.xlsx
+++ b/patient_data/patient_28.xlsx
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1368,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1522,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2079,22 +2079,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2156,22 +2156,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2233,22 +2233,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
